--- a/Enchantments/Items/Legendary.xlsx
+++ b/Enchantments/Items/Legendary.xlsx
@@ -3,12 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F2D58C-E62D-49AA-894B-066B13F37674}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD758772-363D-49D9-9C44-6ED49D95EB06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Holy Avenger" sheetId="2" r:id="rId1"/>
+    <sheet name="Answering" sheetId="4" r:id="rId1"/>
+    <sheet name="Holy Avenger" sheetId="2" r:id="rId2"/>
+    <sheet name="Vorpal" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -20,13 +22,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
   <si>
     <t>Legendary</t>
   </si>
   <si>
-    <r>
-      <t>Require attunement by a paladin (</t>
+    <t>ATTUNEMENT</t>
+  </si>
+  <si>
+    <r>
+      <t>Remove everything but advantage aura (</t>
     </r>
     <r>
       <rPr>
@@ -38,68 +43,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>+5 MCI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>ATTUNEMENT</t>
-  </si>
-  <si>
-    <r>
-      <t>Remove everything but advantage aura (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>+16 MCI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Force 17 levels of paladin for full aura (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+9 MCI</t>
     </r>
     <r>
       <rPr>
@@ -674,17 +618,926 @@
     </r>
   </si>
   <si>
-    <t>-34 MCI</t>
-  </si>
-  <si>
     <t>+3 WEAPON</t>
+  </si>
+  <si>
+    <r>
+      <t>Force 17 levels of paladin for full aura (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+9 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Require attunement by a paladin (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+5 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Damage only affects fiends and undead (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+5 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>BASE 34 MCI</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> · Medium ruby (3d6 fire </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3d10 fire)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Decrease range (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+10 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">60 ft. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> melee attack</t>
+    </r>
+  </si>
+  <si>
+    <t>10TH-LEVEL SILENT SCYTHE OF SLAYING</t>
+  </si>
+  <si>
+    <r>
+      <t>Cast the spell (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-30 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5d10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 6d8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Increase damage (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> · Small sunstone (+4 MCI for divine smite)</t>
+  </si>
+  <si>
+    <t>2d6 → 0</t>
+  </si>
+  <si>
+    <r>
+      <t>Decrease damage (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+5 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>4TH-LEVEL ELEMENTAL BANE</t>
+  </si>
+  <si>
+    <r>
+      <t>Cast the spell (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-12 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Change to slashing (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cast </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>silent scythe of slaying</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">90 ft. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> melee attack</t>
+    </r>
+  </si>
+  <si>
+    <t>3RD-LEVEL MAGIC WEAPON</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> · Medium diamond (+3 MCI for forcebinding)</t>
+  </si>
+  <si>
+    <r>
+      <t>Forcebinding (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-5 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Silent scythe of slaying</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bound to weapon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Increase duration (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-8 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Require a natural 20 attack roll
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+10 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Remove dancing (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+10 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>83 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>38</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Decapitate all targets (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-10 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>84 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>74</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>39</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Strip immunity (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-10 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ignore damage type (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-5 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enchant </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>riposte</t>
+    </r>
+  </si>
+  <si>
+    <t>RIPOSTE (1 STAMINA)</t>
+  </si>
+  <si>
+    <r>
+      <t>Decrease cooldown (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-6 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 per short rest </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">→ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no cooldown</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Enchant a flourish (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-6 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Automatic advantage (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-5 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>58 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>43</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cast </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>elemental</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bane</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,14 +1602,29 @@
     </font>
     <font>
       <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
+      <color rgb="FFBB2961"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
@@ -765,9 +1633,25 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFBB2961"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
-      <color rgb="FFFF7C80"/>
+      <color rgb="FFC89800"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -781,7 +1665,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -851,11 +1735,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -863,9 +1780,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -881,16 +1795,44 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,6 +1842,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFBB2961"/>
       <color rgb="FFFF5050"/>
       <color rgb="FFFF7C80"/>
     </mruColors>
@@ -1177,11 +2120,165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7213B1E-D1E9-4C5B-8424-DBE9FF807967}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="31"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="28"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26396257-7010-4DA9-A8BF-A8B21C92BE9D}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,168 +2286,383 @@
     <col min="1" max="2" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="30"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="31"/>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="32"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="31"/>
+    </row>
+    <row r="13" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="32"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="13"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="13"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
+      <c r="B21" s="31"/>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF8FA19-5BB2-4792-AA23-ACC7C747B4F5}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="31"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="28"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="23"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="23"/>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="23"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Enchantments/Items/Legendary.xlsx
+++ b/Enchantments/Items/Legendary.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD758772-363D-49D9-9C44-6ED49D95EB06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEE48A5-23B4-43BE-9F76-22D848700286}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Answering" sheetId="4" r:id="rId1"/>
     <sheet name="Holy Avenger" sheetId="2" r:id="rId2"/>
     <sheet name="Vorpal" sheetId="3" r:id="rId3"/>
+    <sheet name="Deathsong" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
   <si>
     <t>Legendary</t>
   </si>
@@ -266,32 +267,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> · Huge eel's eye (+2 MCI for </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>holy aura</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> spell)</t>
-    </r>
-  </si>
-  <si>
     <t>8TH-LEVEL HOLY AURA</t>
   </si>
   <si>
@@ -528,32 +503,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> · Large sunstone (+2 MCI for </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>holy weapon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> spell)</t>
-    </r>
-  </si>
-  <si>
     <t>5TH-LEVEL HOLY WEAPON</t>
   </si>
   <si>
@@ -712,7 +661,36 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"> · Medium ruby (3d6 fire </t>
+      <t>Decrease range (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+10 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">60 ft. </t>
     </r>
     <r>
       <rPr>
@@ -729,42 +707,46 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 3d10 fire)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Decrease range (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+10 MCI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">60 ft. </t>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> melee attack</t>
+    </r>
+  </si>
+  <si>
+    <t>10TH-LEVEL SILENT SCYTHE OF SLAYING</t>
+  </si>
+  <si>
+    <r>
+      <t>Cast the spell (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-30 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5d10 </t>
     </r>
     <r>
       <rPr>
@@ -783,11 +765,72 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> melee attack</t>
-    </r>
-  </si>
-  <si>
-    <t>10TH-LEVEL SILENT SCYTHE OF SLAYING</t>
+      <t xml:space="preserve"> 6d8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Increase damage (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>2d6 → 0</t>
+  </si>
+  <si>
+    <r>
+      <t>Decrease damage (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+5 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>4TH-LEVEL ELEMENTAL BANE</t>
   </si>
   <si>
     <r>
@@ -803,24 +846,69 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-30 MCI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5d10 </t>
+      <t>-12 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Change to slashing (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cast </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>silent scythe of slaying</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">90 ft. </t>
     </r>
     <r>
       <rPr>
@@ -839,47 +927,126 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 6d8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Increase damage (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0 MCI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> · Small sunstone (+4 MCI for divine smite)</t>
-  </si>
-  <si>
-    <t>2d6 → 0</t>
-  </si>
-  <si>
-    <r>
-      <t>Decrease damage (</t>
+      <t xml:space="preserve"> melee attack</t>
+    </r>
+  </si>
+  <si>
+    <t>3RD-LEVEL MAGIC WEAPON</t>
+  </si>
+  <si>
+    <r>
+      <t>Forcebinding (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-5 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Silent scythe of slaying</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bound to weapon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Increase duration (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-8 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Require a natural 20 attack roll
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+10 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Remove dancing (</t>
     </r>
     <r>
       <rPr>
@@ -891,27 +1058,73 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>+5 MCI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>4TH-LEVEL ELEMENTAL BANE</t>
-  </si>
-  <si>
-    <r>
-      <t>Cast the spell (</t>
+      <t>+10 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>83 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>38</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Decapitate all targets (</t>
     </r>
     <r>
       <rPr>
@@ -923,24 +1136,73 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-12 MCI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Change to slashing (</t>
+      <t>-10 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>84 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>74</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>39</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Strip immunity (</t>
     </r>
     <r>
       <rPr>
@@ -952,40 +1214,101 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-1 MCI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cast </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>silent scythe of slaying</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">90 ft. </t>
+      <t>-10 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ignore damage type (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-5 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enchant </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>riposte</t>
+    </r>
+  </si>
+  <si>
+    <t>RIPOSTE (1 STAMINA)</t>
+  </si>
+  <si>
+    <r>
+      <t>Decrease cooldown (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-6 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 per short rest </t>
     </r>
     <r>
       <rPr>
@@ -994,28 +1317,22 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> melee attack</t>
-    </r>
-  </si>
-  <si>
-    <t>3RD-LEVEL MAGIC WEAPON</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> · Medium diamond (+3 MCI for forcebinding)</t>
-  </si>
-  <si>
-    <r>
-      <t>Forcebinding (</t>
+      <t xml:space="preserve">→ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no cooldown</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Enchant a flourish (</t>
     </r>
     <r>
       <rPr>
@@ -1027,6 +1344,35 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>-6 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Automatic advantage (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>-5 MCI</t>
     </r>
     <r>
@@ -1044,30 +1390,71 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Silent scythe of slaying</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> bound to weapon</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Increase duration (</t>
+      <t>58 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>43</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cast </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>elemental</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bane</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cast the spell (</t>
     </r>
     <r>
       <rPr>
@@ -1079,316 +1466,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-8 MCI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Require a natural 20 attack roll
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFBB2961"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+10 MCI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Remove dancing (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+10 MCI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>83 (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFBB2961"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>64</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>38</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Decapitate all targets (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-10 MCI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>84 (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFBB2961"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>74</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>39</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Strip immunity (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-10 MCI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ignore damage type (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-5 MCI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enchant </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>riposte</t>
-    </r>
-  </si>
-  <si>
-    <t>RIPOSTE (1 STAMINA)</t>
-  </si>
-  <si>
-    <r>
-      <t>Decrease cooldown (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-6 MCI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 per short rest </t>
+      <t>-9 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 action </t>
     </r>
     <r>
       <rPr>
@@ -1397,6 +1492,419 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> no action</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Make Permanent (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-9 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>6TH-LEVEL VAMPIRIC TOUCH</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cast </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vampiric touch</t>
+    </r>
+  </si>
+  <si>
+    <t>6TH-LEVEL BANISHING SMITE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cast </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>banishing smite</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cast the spell (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-18 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>6TH-LEVEL SOUL CAGE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cast </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>soul cage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Increase Damage (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6d6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5d8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5d10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 8d8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Remove banishment (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+12 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Added a Constitution save</t>
+  </si>
+  <si>
+    <r>
+      <t>Add a saving throw (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 bonus action </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> no action</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 reaction </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> no action</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Require no action (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-2 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tie to successful banishing smite
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+25 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Concentration (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-7 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">no cooldown </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
       <t xml:space="preserve">→ </t>
     </r>
     <r>
@@ -1407,12 +1915,130 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>no cooldown</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Enchant a flourish (</t>
+      <t>1 per turn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Increase Cooldown (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+2 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8 hours </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instantaneous</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Make Instantaneous (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+9 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Remove exploitations
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+12 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>3RD-LEVEL VAMPIRIC TOUCH</t>
+  </si>
+  <si>
+    <t>Artifact</t>
+  </si>
+  <si>
+    <r>
+      <t>Create sentient weapon (</t>
     </r>
     <r>
       <rPr>
@@ -1424,53 +2050,46 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-6 MCI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Automatic advantage (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-5 MCI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>58 (</t>
+      <t>-10 MCI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>132 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFBB2961"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>107</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
     </r>
     <r>
       <rPr>
@@ -1481,55 +2100,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>43</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cast </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>elemental</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bane</t>
+      <t>72</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
 </sst>
@@ -1537,7 +2119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1615,12 +2197,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1760,9 +2336,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1772,12 +2346,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1812,15 +2383,15 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1831,8 +2402,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2121,153 +2692,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7213B1E-D1E9-4C5B-8424-DBE9FF807967}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="15"/>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="17"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="17"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="17"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="31"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="B12" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+    </row>
+    <row r="15" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="31"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="28"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A13:B13"/>
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2275,10 +2831,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26396257-7010-4DA9-A8BF-A8B21C92BE9D}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2287,175 +2843,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="29"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="30"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="30"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="31"/>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="30"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="31"/>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="32"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="31"/>
-    </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="32"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="27"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="31"/>
-    </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A21:B21"/>
+  <mergeCells count="4">
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2463,206 +3005,422 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF8FA19-5BB2-4792-AA23-ACC7C747B4F5}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="31"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="22"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="22"/>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="22"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C906BC99-898C-4C15-82D9-353424F55ABF}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="34.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="29"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="B3" s="31"/>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="15"/>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="15"/>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="17"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="20" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="17"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="B6" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="31"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="28"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>46</v>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="31"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="31"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>3</v>
+      <c r="B18" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>38</v>
+      <c r="A19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>35</v>
+      <c r="A20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="23"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="23"/>
-    </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="23"/>
+      <c r="A21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="31"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>0</v>
+      <c r="A24" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="22"/>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="22"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="22"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="5">
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
